--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>4850.613113911108</v>
+        <v>5122.651705337377</v>
       </c>
       <c r="R2">
-        <v>4850.613113911108</v>
+        <v>46103.86534803639</v>
       </c>
       <c r="S2">
-        <v>0.006538604217936914</v>
+        <v>0.005581792157248981</v>
       </c>
       <c r="T2">
-        <v>0.006538604217936914</v>
+        <v>0.005581792157248981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>5163.194207889213</v>
+        <v>5399.4646581781</v>
       </c>
       <c r="R3">
-        <v>5163.194207889213</v>
+        <v>48595.1819236029</v>
       </c>
       <c r="S3">
-        <v>0.006959962098174985</v>
+        <v>0.005883415702644698</v>
       </c>
       <c r="T3">
-        <v>0.006959962098174985</v>
+        <v>0.005883415702644698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>3329.356584601285</v>
+        <v>3488.535271160744</v>
       </c>
       <c r="R4">
-        <v>3329.356584601285</v>
+        <v>31396.8174404467</v>
       </c>
       <c r="S4">
-        <v>0.004487957397521056</v>
+        <v>0.003801210766791541</v>
       </c>
       <c r="T4">
-        <v>0.004487957397521056</v>
+        <v>0.003801210766791542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>2581.511412214682</v>
+        <v>2720.970340598811</v>
       </c>
       <c r="R5">
-        <v>2581.511412214682</v>
+        <v>24488.7330653893</v>
       </c>
       <c r="S5">
-        <v>0.003479865537028796</v>
+        <v>0.002964849414110472</v>
       </c>
       <c r="T5">
-        <v>0.003479865537028796</v>
+        <v>0.002964849414110472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>1706.632256292198</v>
+        <v>1869.126060463444</v>
       </c>
       <c r="R6">
-        <v>1706.632256292198</v>
+        <v>16822.134544171</v>
       </c>
       <c r="S6">
-        <v>0.002300532449693092</v>
+        <v>0.002036654800156361</v>
       </c>
       <c r="T6">
-        <v>0.002300532449693092</v>
+        <v>0.002036654800156361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>27287.32167184455</v>
+        <v>27869.05945154835</v>
       </c>
       <c r="R7">
-        <v>27287.32167184455</v>
+        <v>250821.5350639351</v>
       </c>
       <c r="S7">
-        <v>0.03678318439127402</v>
+        <v>0.03036694790599921</v>
       </c>
       <c r="T7">
-        <v>0.03678318439127402</v>
+        <v>0.0303669479059992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>29045.75934964157</v>
+        <v>29375.02102836975</v>
       </c>
       <c r="R8">
-        <v>29045.75934964157</v>
+        <v>264375.1892553277</v>
       </c>
       <c r="S8">
-        <v>0.03915355031141891</v>
+        <v>0.03200788798979638</v>
       </c>
       <c r="T8">
-        <v>0.03915355031141891</v>
+        <v>0.03200788798979638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>18729.43109475003</v>
+        <v>18978.88095134492</v>
       </c>
       <c r="R9">
-        <v>18729.43109475003</v>
+        <v>170809.9285621043</v>
       </c>
       <c r="S9">
-        <v>0.02524718716577808</v>
+        <v>0.02067994760159127</v>
       </c>
       <c r="T9">
-        <v>0.02524718716577808</v>
+        <v>0.02067994760159127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>14522.39761250327</v>
+        <v>14803.0529011056</v>
       </c>
       <c r="R10">
-        <v>14522.39761250327</v>
+        <v>133227.4761099504</v>
       </c>
       <c r="S10">
-        <v>0.01957612533791765</v>
+        <v>0.01612984238234311</v>
       </c>
       <c r="T10">
-        <v>0.01957612533791765</v>
+        <v>0.01612984238234311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>9600.729280889109</v>
+        <v>10168.71501281647</v>
       </c>
       <c r="R11">
-        <v>9600.729280889109</v>
+        <v>91518.43511534821</v>
       </c>
       <c r="S11">
-        <v>0.01294173901259163</v>
+        <v>0.0110801313407078</v>
       </c>
       <c r="T11">
-        <v>0.01294173901259163</v>
+        <v>0.0110801313407078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>95837.21265704237</v>
+        <v>98878.19381965115</v>
       </c>
       <c r="R12">
-        <v>95837.21265704237</v>
+        <v>889903.7443768604</v>
       </c>
       <c r="S12">
-        <v>0.1291881228617274</v>
+        <v>0.1077405918911921</v>
       </c>
       <c r="T12">
-        <v>0.1291881228617274</v>
+        <v>0.1077405918911921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>102013.1125015872</v>
+        <v>104221.2790765029</v>
       </c>
       <c r="R13">
-        <v>102013.1125015872</v>
+        <v>937991.5116885266</v>
       </c>
       <c r="S13">
-        <v>0.1375132075107763</v>
+        <v>0.1135625749378111</v>
       </c>
       <c r="T13">
-        <v>0.1375132075107763</v>
+        <v>0.1135625749378111</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>65780.60288800947</v>
+        <v>67336.23258616675</v>
       </c>
       <c r="R14">
-        <v>65780.60288800947</v>
+        <v>606026.0932755008</v>
       </c>
       <c r="S14">
-        <v>0.08867195082379313</v>
+        <v>0.07337154203877402</v>
       </c>
       <c r="T14">
-        <v>0.08867195082379313</v>
+        <v>0.07337154203877402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>51004.86317481517</v>
+        <v>52520.57883125829</v>
       </c>
       <c r="R15">
-        <v>51004.86317481517</v>
+        <v>472685.2094813246</v>
       </c>
       <c r="S15">
-        <v>0.06875432149673881</v>
+        <v>0.05722796939503952</v>
       </c>
       <c r="T15">
-        <v>0.06875432149673881</v>
+        <v>0.05722796939503952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>33719.21747470888</v>
+        <v>36078.1523926959</v>
       </c>
       <c r="R16">
-        <v>33719.21747470888</v>
+        <v>324703.3715342631</v>
       </c>
       <c r="S16">
-        <v>0.04545335041736416</v>
+        <v>0.03931181732768627</v>
       </c>
       <c r="T16">
-        <v>0.04545335041736416</v>
+        <v>0.03931181732768627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>70717.64137381404</v>
+        <v>113761.3051406783</v>
       </c>
       <c r="R17">
-        <v>70717.64137381404</v>
+        <v>1023851.746266104</v>
       </c>
       <c r="S17">
-        <v>0.09532705604643371</v>
+        <v>0.1239576682855555</v>
       </c>
       <c r="T17">
-        <v>0.09532705604643371</v>
+        <v>0.1239576682855555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>75274.79676532176</v>
+        <v>119908.6297308304</v>
       </c>
       <c r="R18">
-        <v>75274.79676532176</v>
+        <v>1079177.667577474</v>
       </c>
       <c r="S18">
-        <v>0.1014700806012575</v>
+        <v>0.1306559741941193</v>
       </c>
       <c r="T18">
-        <v>0.1014700806012575</v>
+        <v>0.1306559741941193</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>48539.06906740259</v>
+        <v>77471.65887991969</v>
       </c>
       <c r="R19">
-        <v>48539.06906740259</v>
+        <v>697244.9299192773</v>
       </c>
       <c r="S19">
-        <v>0.06543044235555291</v>
+        <v>0.08441540101085679</v>
       </c>
       <c r="T19">
-        <v>0.06543044235555291</v>
+        <v>0.0844154010108568</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>37636.1490731647</v>
+        <v>60425.95807813372</v>
       </c>
       <c r="R20">
-        <v>37636.1490731647</v>
+        <v>543833.6227032035</v>
       </c>
       <c r="S20">
-        <v>0.05073335623716103</v>
+        <v>0.06584190343125602</v>
       </c>
       <c r="T20">
-        <v>0.05073335623716103</v>
+        <v>0.06584190343125602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>24881.18615589644</v>
+        <v>41508.62333451804</v>
       </c>
       <c r="R21">
-        <v>24881.18615589644</v>
+        <v>373577.6100106624</v>
       </c>
       <c r="S21">
-        <v>0.03353972475760709</v>
+        <v>0.04522901839010654</v>
       </c>
       <c r="T21">
-        <v>0.03353972475760709</v>
+        <v>0.04522901839010654</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>5398.139536077693</v>
+        <v>7115.543733005713</v>
       </c>
       <c r="R22">
-        <v>5398.139536077693</v>
+        <v>64039.89359705141</v>
       </c>
       <c r="S22">
-        <v>0.007276667322401598</v>
+        <v>0.007753306000107543</v>
       </c>
       <c r="T22">
-        <v>0.007276667322401598</v>
+        <v>0.007753306000107542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>5746.004088868854</v>
+        <v>7500.046678960123</v>
       </c>
       <c r="R23">
-        <v>5746.004088868854</v>
+        <v>67500.42011064111</v>
       </c>
       <c r="S23">
-        <v>0.007745587143202771</v>
+        <v>0.008172271733407599</v>
       </c>
       <c r="T23">
-        <v>0.007745587143202771</v>
+        <v>0.008172271733407599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>3705.166952502111</v>
+        <v>4845.69842220854</v>
       </c>
       <c r="R24">
-        <v>3705.166952502111</v>
+        <v>43611.28579987687</v>
       </c>
       <c r="S24">
-        <v>0.004994548048845839</v>
+        <v>0.005280015703838689</v>
       </c>
       <c r="T24">
-        <v>0.004994548048845839</v>
+        <v>0.005280015703838689</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>2872.906680012578</v>
+        <v>3779.523685861669</v>
       </c>
       <c r="R25">
-        <v>2872.906680012578</v>
+        <v>34015.71317275502</v>
       </c>
       <c r="S25">
-        <v>0.003872665020798363</v>
+        <v>0.004118280312889243</v>
       </c>
       <c r="T25">
-        <v>0.003872665020798363</v>
+        <v>0.004118280312889242</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>1899.273110406477</v>
+        <v>2596.281963083881</v>
       </c>
       <c r="R26">
-        <v>1899.273110406477</v>
+        <v>23366.53766775493</v>
       </c>
       <c r="S26">
-        <v>0.002560211437004236</v>
+        <v>0.002828985285970005</v>
       </c>
       <c r="T26">
-        <v>0.002560211437004236</v>
+        <v>0.002828985285970005</v>
       </c>
     </row>
   </sheetData>
